--- a/database/industries/shoyande/shegol/balancesheet/yearly.xlsx
+++ b/database/industries/shoyande/shegol/balancesheet/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\shegol\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\shegol\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD28B78-B990-45F4-B690-5300729A2449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شگل-گلتاش‌</t>
@@ -36,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>12 ماهه منتهی به 1396/09</t>
-  </si>
-  <si>
     <t>12 ماهه منتهی به 1397/09</t>
   </si>
   <si>
@@ -51,12 +49,12 @@
     <t>12 ماهه منتهی به 1400/09</t>
   </si>
   <si>
+    <t>12 ماهه منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1397-10-19 (9)</t>
-  </si>
-  <si>
     <t>1398-10-26 (9)</t>
   </si>
   <si>
@@ -66,7 +64,10 @@
     <t>1400-11-27 (11)</t>
   </si>
   <si>
-    <t>1401-08-06 (6)</t>
+    <t>1401-10-30 (7)</t>
+  </si>
+  <si>
+    <t>1401-10-30</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -219,7 +220,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -417,7 +418,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -429,7 +430,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -476,6 +477,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -511,6 +529,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -662,7 +697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -813,19 +848,19 @@
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>78740</v>
+        <v>53016</v>
       </c>
       <c r="E12" s="15">
-        <v>53016</v>
+        <v>93003</v>
       </c>
       <c r="F12" s="15">
-        <v>93003</v>
+        <v>425336</v>
       </c>
       <c r="G12" s="15">
-        <v>425336</v>
+        <v>614192</v>
       </c>
       <c r="H12" s="15">
-        <v>614192</v>
+        <v>178959</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -837,16 +872,16 @@
         <v>63700</v>
       </c>
       <c r="E13" s="11">
-        <v>63700</v>
+        <v>13960</v>
       </c>
       <c r="F13" s="11">
-        <v>13960</v>
+        <v>9260</v>
       </c>
       <c r="G13" s="11">
         <v>9260</v>
       </c>
       <c r="H13" s="11">
-        <v>9260</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -855,19 +890,19 @@
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
-        <v>615629</v>
+        <v>812242</v>
       </c>
       <c r="E14" s="15">
-        <v>812242</v>
+        <v>1276138</v>
       </c>
       <c r="F14" s="15">
-        <v>1276138</v>
+        <v>2451899</v>
       </c>
       <c r="G14" s="15">
-        <v>2451899</v>
+        <v>3139119</v>
       </c>
       <c r="H14" s="15">
-        <v>3139119</v>
+        <v>3982015</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -876,19 +911,19 @@
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
-        <v>471592</v>
+        <v>831637</v>
       </c>
       <c r="E15" s="11">
-        <v>831637</v>
+        <v>1975878</v>
       </c>
       <c r="F15" s="11">
-        <v>1975878</v>
+        <v>3103247</v>
       </c>
       <c r="G15" s="11">
-        <v>3103247</v>
+        <v>4786627</v>
       </c>
       <c r="H15" s="11">
-        <v>4786627</v>
+        <v>5182565</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -897,19 +932,19 @@
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>40697</v>
+        <v>242847</v>
       </c>
       <c r="E16" s="15">
-        <v>242847</v>
+        <v>436291</v>
       </c>
       <c r="F16" s="15">
-        <v>436291</v>
+        <v>1248286</v>
       </c>
       <c r="G16" s="15">
-        <v>1248286</v>
+        <v>1647353</v>
       </c>
       <c r="H16" s="15">
-        <v>1647353</v>
+        <v>973304</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -939,19 +974,19 @@
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
-        <v>1270358</v>
+        <v>2003442</v>
       </c>
       <c r="E18" s="17">
-        <v>2003442</v>
+        <v>3795270</v>
       </c>
       <c r="F18" s="17">
-        <v>3795270</v>
+        <v>7238028</v>
       </c>
       <c r="G18" s="17">
-        <v>7238028</v>
+        <v>10196551</v>
       </c>
       <c r="H18" s="17">
-        <v>10196551</v>
+        <v>10316843</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -960,19 +995,19 @@
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
-        <v>2148</v>
+        <v>3784</v>
       </c>
       <c r="E19" s="11">
-        <v>3784</v>
+        <v>3738</v>
       </c>
       <c r="F19" s="11">
-        <v>3738</v>
+        <v>15591</v>
       </c>
       <c r="G19" s="11">
-        <v>15591</v>
+        <v>25355</v>
       </c>
       <c r="H19" s="11">
-        <v>25355</v>
+        <v>19279</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -987,7 +1022,7 @@
         <v>3251</v>
       </c>
       <c r="F20" s="15">
-        <v>3251</v>
+        <v>6952</v>
       </c>
       <c r="G20" s="15">
         <v>6952</v>
@@ -1023,19 +1058,19 @@
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
-        <v>165788</v>
+        <v>171117</v>
       </c>
       <c r="E22" s="15">
-        <v>171117</v>
+        <v>222062</v>
       </c>
       <c r="F22" s="15">
-        <v>222062</v>
+        <v>424778</v>
       </c>
       <c r="G22" s="15">
-        <v>424778</v>
+        <v>1478341</v>
       </c>
       <c r="H22" s="15">
-        <v>1478341</v>
+        <v>1463147</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -1044,19 +1079,19 @@
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
-        <v>1888</v>
+        <v>2217</v>
       </c>
       <c r="E23" s="11">
-        <v>2217</v>
+        <v>2054</v>
       </c>
       <c r="F23" s="11">
-        <v>2054</v>
+        <v>2173</v>
       </c>
       <c r="G23" s="11">
-        <v>2173</v>
+        <v>5128</v>
       </c>
       <c r="H23" s="11">
-        <v>5128</v>
+        <v>2355501</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -1092,13 +1127,13 @@
         <v>0</v>
       </c>
       <c r="F25" s="11">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G25" s="11">
-        <v>15000</v>
+        <v>55000</v>
       </c>
       <c r="H25" s="11">
-        <v>55000</v>
+        <v>166967</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -1107,19 +1142,19 @@
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
-        <v>173075</v>
+        <v>180369</v>
       </c>
       <c r="E26" s="17">
-        <v>180369</v>
+        <v>231105</v>
       </c>
       <c r="F26" s="17">
-        <v>231105</v>
+        <v>464494</v>
       </c>
       <c r="G26" s="17">
-        <v>464494</v>
+        <v>1570776</v>
       </c>
       <c r="H26" s="17">
-        <v>1570776</v>
+        <v>4011846</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -1128,19 +1163,19 @@
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
-        <v>1443433</v>
+        <v>2183811</v>
       </c>
       <c r="E27" s="19">
-        <v>2183811</v>
+        <v>4026375</v>
       </c>
       <c r="F27" s="19">
-        <v>4026375</v>
+        <v>7702522</v>
       </c>
       <c r="G27" s="19">
-        <v>7702522</v>
+        <v>11767327</v>
       </c>
       <c r="H27" s="19">
-        <v>11767327</v>
+        <v>14328689</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -1160,19 +1195,19 @@
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
-        <v>140101</v>
+        <v>308175</v>
       </c>
       <c r="E29" s="15">
-        <v>308175</v>
+        <v>364507</v>
       </c>
       <c r="F29" s="15">
-        <v>364507</v>
+        <v>726049</v>
       </c>
       <c r="G29" s="15">
-        <v>726049</v>
+        <v>1598910</v>
       </c>
       <c r="H29" s="15">
-        <v>1598910</v>
+        <v>4536782</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -1202,19 +1237,19 @@
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
-        <v>216</v>
+        <v>269</v>
       </c>
       <c r="E31" s="15">
-        <v>269</v>
+        <v>20578</v>
       </c>
       <c r="F31" s="15">
-        <v>20578</v>
+        <v>6073</v>
       </c>
       <c r="G31" s="15">
-        <v>6073</v>
+        <v>174686</v>
       </c>
       <c r="H31" s="15">
-        <v>174686</v>
+        <v>54240</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -1223,19 +1258,19 @@
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
-        <v>100937</v>
+        <v>143650</v>
       </c>
       <c r="E32" s="11">
-        <v>143650</v>
+        <v>318648</v>
       </c>
       <c r="F32" s="11">
-        <v>318648</v>
+        <v>482023</v>
       </c>
       <c r="G32" s="11">
-        <v>482023</v>
+        <v>289429</v>
       </c>
       <c r="H32" s="11">
-        <v>289429</v>
+        <v>302945</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -1244,19 +1279,19 @@
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
-        <v>7040</v>
+        <v>5866</v>
       </c>
       <c r="E33" s="15">
-        <v>5866</v>
+        <v>10032</v>
       </c>
       <c r="F33" s="15">
-        <v>10032</v>
+        <v>606718</v>
       </c>
       <c r="G33" s="15">
-        <v>606718</v>
+        <v>599553</v>
       </c>
       <c r="H33" s="15">
-        <v>599553</v>
+        <v>751334</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -1265,19 +1300,19 @@
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
-        <v>58424</v>
+        <v>163327</v>
       </c>
       <c r="E34" s="11">
-        <v>163327</v>
+        <v>325445</v>
       </c>
       <c r="F34" s="11">
-        <v>325445</v>
+        <v>1936750</v>
       </c>
       <c r="G34" s="11">
-        <v>1936750</v>
+        <v>4501601</v>
       </c>
       <c r="H34" s="11">
-        <v>4501601</v>
+        <v>3982036</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -1328,19 +1363,19 @@
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
-        <v>306718</v>
+        <v>621287</v>
       </c>
       <c r="E37" s="17">
-        <v>621287</v>
+        <v>1039210</v>
       </c>
       <c r="F37" s="17">
-        <v>1039210</v>
+        <v>3757613</v>
       </c>
       <c r="G37" s="17">
-        <v>3757613</v>
+        <v>7164179</v>
       </c>
       <c r="H37" s="17">
-        <v>7164179</v>
+        <v>9627337</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
@@ -1372,8 +1407,8 @@
       <c r="D39" s="15">
         <v>0</v>
       </c>
-      <c r="E39" s="15">
-        <v>0</v>
+      <c r="E39" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="F39" s="15" t="s">
         <v>30</v>
@@ -1412,19 +1447,19 @@
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>1988</v>
+        <v>856</v>
       </c>
       <c r="E41" s="15">
-        <v>856</v>
+        <v>57414</v>
       </c>
       <c r="F41" s="15">
-        <v>57414</v>
+        <v>59482</v>
       </c>
       <c r="G41" s="15">
-        <v>59482</v>
+        <v>84382</v>
       </c>
       <c r="H41" s="15">
-        <v>84382</v>
+        <v>107503</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
@@ -1433,19 +1468,19 @@
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
-        <v>1988</v>
+        <v>856</v>
       </c>
       <c r="E42" s="19">
-        <v>856</v>
+        <v>57414</v>
       </c>
       <c r="F42" s="19">
-        <v>57414</v>
+        <v>59482</v>
       </c>
       <c r="G42" s="19">
-        <v>59482</v>
+        <v>84382</v>
       </c>
       <c r="H42" s="19">
-        <v>84382</v>
+        <v>107503</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
@@ -1454,19 +1489,19 @@
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
-        <v>308706</v>
+        <v>622143</v>
       </c>
       <c r="E43" s="17">
-        <v>622143</v>
+        <v>1096624</v>
       </c>
       <c r="F43" s="17">
-        <v>1096624</v>
+        <v>3817095</v>
       </c>
       <c r="G43" s="17">
-        <v>3817095</v>
+        <v>7248561</v>
       </c>
       <c r="H43" s="17">
-        <v>7248561</v>
+        <v>9734840</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
@@ -1489,13 +1524,13 @@
         <v>500000</v>
       </c>
       <c r="E45" s="15">
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="F45" s="15">
         <v>1000000</v>
       </c>
       <c r="G45" s="15">
-        <v>1000000</v>
+        <v>2600000</v>
       </c>
       <c r="H45" s="15">
         <v>2600000</v>
@@ -1572,8 +1607,8 @@
       <c r="D49" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E49" s="15" t="s">
-        <v>30</v>
+      <c r="E49" s="15">
+        <v>0</v>
       </c>
       <c r="F49" s="15">
         <v>0</v>
@@ -1591,19 +1626,19 @@
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
-        <v>40310</v>
+        <v>50000</v>
       </c>
       <c r="E50" s="11">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="F50" s="11">
         <v>100000</v>
       </c>
       <c r="G50" s="11">
-        <v>100000</v>
+        <v>149167</v>
       </c>
       <c r="H50" s="11">
-        <v>149167</v>
+        <v>185421</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
@@ -1635,8 +1670,8 @@
       <c r="D52" s="11">
         <v>0</v>
       </c>
-      <c r="E52" s="11">
-        <v>0</v>
+      <c r="E52" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="F52" s="11" t="s">
         <v>30</v>
@@ -1677,8 +1712,8 @@
       <c r="D54" s="11">
         <v>0</v>
       </c>
-      <c r="E54" s="11">
-        <v>0</v>
+      <c r="E54" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="F54" s="11" t="s">
         <v>30</v>
@@ -1717,19 +1752,19 @@
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>594417</v>
+        <v>1011668</v>
       </c>
       <c r="E56" s="11">
-        <v>1011668</v>
+        <v>1829751</v>
       </c>
       <c r="F56" s="11">
-        <v>1829751</v>
+        <v>2785427</v>
       </c>
       <c r="G56" s="11">
-        <v>2785427</v>
+        <v>1769599</v>
       </c>
       <c r="H56" s="11">
-        <v>1769599</v>
+        <v>1808428</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
@@ -1738,19 +1773,19 @@
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
-        <v>1134727</v>
+        <v>1561668</v>
       </c>
       <c r="E57" s="17">
-        <v>1561668</v>
+        <v>2929751</v>
       </c>
       <c r="F57" s="17">
-        <v>2929751</v>
+        <v>3885427</v>
       </c>
       <c r="G57" s="17">
-        <v>3885427</v>
+        <v>4518766</v>
       </c>
       <c r="H57" s="17">
-        <v>4518766</v>
+        <v>4593849</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
@@ -1759,19 +1794,19 @@
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
-        <v>1443433</v>
+        <v>2183811</v>
       </c>
       <c r="E58" s="19">
-        <v>2183811</v>
+        <v>4026375</v>
       </c>
       <c r="F58" s="19">
-        <v>4026375</v>
+        <v>7702522</v>
       </c>
       <c r="G58" s="19">
-        <v>7702522</v>
+        <v>11767327</v>
       </c>
       <c r="H58" s="19">
-        <v>11767327</v>
+        <v>14328689</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
